--- a/Matlab/Model/Model_Example/SBTAB example.xlsx
+++ b/Matlab/Model/Model_Example/SBTAB example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santos\Documents\GitHub\Subcellular_workflow\Matlab\Model\Model_Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42C3DEC-4DAE-4B1F-9A85-BFFF350CC858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B0FB24-87A3-49D1-AE5C-FDE1464B0B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compartment" sheetId="15" r:id="rId1"/>
@@ -167,9 +167,6 @@
     <t>!IsConstant</t>
   </si>
   <si>
-    <t>!Assignement</t>
-  </si>
-  <si>
     <t>!Interpolation</t>
   </si>
   <si>
@@ -1806,6 +1803,9 @@
   </si>
   <si>
     <t>SBtabVersion='1.0' Document='SBTAB example' TableName='Compartment' TableTitle='SBTAB example Compartment' TableType = 'Quantity'</t>
+  </si>
+  <si>
+    <t>!Assignment</t>
   </si>
 </sst>
 </file>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2173,18 +2173,18 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2218,15 +2218,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B4">
         <v>0.1</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B5">
         <v>0.2</v>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B6">
         <v>0.3</v>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B7">
         <v>0.4</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B8">
         <v>0.5</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B9">
         <v>0.6</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B10">
         <v>0.7</v>
@@ -2322,7 +2322,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B11">
         <v>0.8</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B12">
         <v>0.9</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B14">
         <v>1.1000000000000001</v>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B15">
         <v>1.2</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B16">
         <v>1.3</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B17">
         <v>1.4</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B18">
         <v>1.5</v>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B19">
         <v>1.6</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B20">
         <v>1.7</v>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B21">
         <v>1.8</v>
@@ -2454,7 +2454,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B22">
         <v>1.9</v>
@@ -2466,7 +2466,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B24">
         <v>2.1</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B25">
         <v>2.2000000000000002</v>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B26">
         <v>2.2999999999999998</v>
@@ -2514,7 +2514,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B27">
         <v>2.4</v>
@@ -2526,7 +2526,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B28">
         <v>2.5</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B29">
         <v>2.6</v>
@@ -2550,7 +2550,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B30">
         <v>2.7</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B31">
         <v>2.8</v>
@@ -2574,7 +2574,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B32">
         <v>2.9</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -2598,7 +2598,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B34">
         <v>3.1</v>
@@ -2610,7 +2610,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B35">
         <v>3.2</v>
@@ -2622,7 +2622,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B36">
         <v>3.3</v>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B37">
         <v>3.4</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B38">
         <v>3.5</v>
@@ -2658,7 +2658,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B39">
         <v>3.6</v>
@@ -2670,7 +2670,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B40">
         <v>3.7</v>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B41">
         <v>3.8</v>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B42">
         <v>3.9</v>
@@ -2706,7 +2706,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -2718,7 +2718,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B44">
         <v>4.0999999999999996</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B45">
         <v>4.2</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B46">
         <v>4.3</v>
@@ -2754,7 +2754,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B47">
         <v>4.4000000000000004</v>
@@ -2766,7 +2766,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B48">
         <v>4.5</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B49">
         <v>4.5999999999999996</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B50">
         <v>4.7</v>
@@ -2802,7 +2802,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B51">
         <v>4.8</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B52">
         <v>4.9000000000000004</v>
@@ -2826,7 +2826,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B53">
         <v>5</v>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B54">
         <v>5.0999999999999996</v>
@@ -2850,7 +2850,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B55">
         <v>5.2</v>
@@ -2862,7 +2862,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B56">
         <v>5.3</v>
@@ -2874,7 +2874,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B57">
         <v>5.4</v>
@@ -2886,7 +2886,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B58">
         <v>5.5</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B59">
         <v>5.6</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B60">
         <v>5.7</v>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B61">
         <v>5.8</v>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B62">
         <v>5.9</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B63">
         <v>6</v>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B64">
         <v>6.1</v>
@@ -2970,7 +2970,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B65">
         <v>6.2</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B66">
         <v>6.3</v>
@@ -2994,7 +2994,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B67">
         <v>6.4</v>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B68">
         <v>6.5</v>
@@ -3018,7 +3018,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B69">
         <v>6.6</v>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B70">
         <v>6.7</v>
@@ -3042,7 +3042,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B71">
         <v>6.8</v>
@@ -3054,7 +3054,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B72">
         <v>6.9</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B73">
         <v>7</v>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B74">
         <v>7.1</v>
@@ -3090,7 +3090,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B75">
         <v>7.2</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B76">
         <v>7.3</v>
@@ -3114,7 +3114,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B77">
         <v>7.4</v>
@@ -3126,7 +3126,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B78">
         <v>7.5</v>
@@ -3138,7 +3138,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B79">
         <v>7.6</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B80">
         <v>7.7</v>
@@ -3162,7 +3162,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B81">
         <v>7.8</v>
@@ -3174,7 +3174,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B82">
         <v>7.9</v>
@@ -3186,7 +3186,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B83">
         <v>8</v>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B84">
         <v>8.1</v>
@@ -3210,7 +3210,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B85">
         <v>8.1999999999999993</v>
@@ -3222,7 +3222,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B86">
         <v>8.3000000000000007</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B87">
         <v>8.4</v>
@@ -3246,7 +3246,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B88">
         <v>8.5</v>
@@ -3258,7 +3258,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B89">
         <v>8.6</v>
@@ -3270,7 +3270,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B90">
         <v>8.6999999999999993</v>
@@ -3282,7 +3282,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B91">
         <v>8.8000000000000007</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B92">
         <v>8.9</v>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B93">
         <v>9</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B94">
         <v>9.1</v>
@@ -3330,7 +3330,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B95">
         <v>9.1999999999999993</v>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B96">
         <v>9.3000000000000007</v>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B97">
         <v>9.4</v>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B98">
         <v>9.5</v>
@@ -3378,7 +3378,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B99">
         <v>9.6</v>
@@ -3390,7 +3390,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B100">
         <v>9.6999999999999993</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B101">
         <v>9.8000000000000007</v>
@@ -3414,7 +3414,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B102">
         <v>9.9</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B103">
         <v>10</v>
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3464,36 +3464,36 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>159</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>160</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>161</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>162</v>
       </c>
-      <c r="F2" t="s">
-        <v>163</v>
-      </c>
       <c r="G2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H2" t="s">
         <v>271</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>272</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>273</v>
-      </c>
-      <c r="J2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B4">
         <v>0.1</v>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B5">
         <v>0.2</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B6">
         <v>0.3</v>
@@ -3621,7 +3621,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B7">
         <v>0.4</v>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B8">
         <v>0.5</v>
@@ -3685,7 +3685,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B9">
         <v>0.6</v>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B10">
         <v>0.7</v>
@@ -3749,7 +3749,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B11">
         <v>0.8</v>
@@ -3781,7 +3781,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B12">
         <v>0.9</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -3845,7 +3845,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B14">
         <v>1.1000000000000001</v>
@@ -3877,7 +3877,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B15">
         <v>1.2</v>
@@ -3909,7 +3909,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B16">
         <v>1.3</v>
@@ -3941,7 +3941,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B17">
         <v>1.4</v>
@@ -3973,7 +3973,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B18">
         <v>1.5</v>
@@ -4005,7 +4005,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B19">
         <v>1.6</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B20">
         <v>1.7</v>
@@ -4069,7 +4069,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B21">
         <v>1.8</v>
@@ -4101,7 +4101,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B22">
         <v>1.9</v>
@@ -4133,7 +4133,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B24">
         <v>2.1</v>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B25">
         <v>2.2000000000000002</v>
@@ -4229,7 +4229,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B26">
         <v>2.2999999999999998</v>
@@ -4261,7 +4261,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B27">
         <v>2.4</v>
@@ -4293,7 +4293,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B28">
         <v>2.5</v>
@@ -4325,7 +4325,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B29">
         <v>2.6</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B30">
         <v>2.7</v>
@@ -4389,7 +4389,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B31">
         <v>2.8</v>
@@ -4421,7 +4421,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B32">
         <v>2.9</v>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -4485,7 +4485,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B34">
         <v>3.1</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B35">
         <v>3.2</v>
@@ -4549,7 +4549,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B36">
         <v>3.3</v>
@@ -4581,7 +4581,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B37">
         <v>3.4</v>
@@ -4613,7 +4613,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B38">
         <v>3.5</v>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B39">
         <v>3.6</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B40">
         <v>3.7</v>
@@ -4709,7 +4709,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B41">
         <v>3.8</v>
@@ -4741,7 +4741,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B42">
         <v>3.9</v>
@@ -4773,7 +4773,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -4805,7 +4805,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B44">
         <v>4.0999999999999996</v>
@@ -4837,7 +4837,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B45">
         <v>4.2</v>
@@ -4869,7 +4869,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B46">
         <v>4.3</v>
@@ -4901,7 +4901,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B47">
         <v>4.4000000000000004</v>
@@ -4933,7 +4933,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B48">
         <v>4.5</v>
@@ -4965,7 +4965,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B49">
         <v>4.5999999999999996</v>
@@ -4997,7 +4997,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B50">
         <v>4.7</v>
@@ -5029,7 +5029,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B51">
         <v>4.8</v>
@@ -5061,7 +5061,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B52">
         <v>4.9000000000000004</v>
@@ -5093,7 +5093,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B53">
         <v>5</v>
@@ -5125,7 +5125,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B54">
         <v>5.0999999999999996</v>
@@ -5157,7 +5157,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B55">
         <v>5.2</v>
@@ -5189,7 +5189,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B56">
         <v>5.3</v>
@@ -5221,7 +5221,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B57">
         <v>5.4</v>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B58">
         <v>5.5</v>
@@ -5285,7 +5285,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B59">
         <v>5.6</v>
@@ -5317,7 +5317,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B60">
         <v>5.7</v>
@@ -5349,7 +5349,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B61">
         <v>5.8</v>
@@ -5381,7 +5381,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B62">
         <v>5.9</v>
@@ -5413,7 +5413,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B63">
         <v>6</v>
@@ -5445,7 +5445,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B64">
         <v>6.1</v>
@@ -5477,7 +5477,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B65">
         <v>6.2</v>
@@ -5509,7 +5509,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B66">
         <v>6.3</v>
@@ -5541,7 +5541,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B67">
         <v>6.4</v>
@@ -5573,7 +5573,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B68">
         <v>6.5</v>
@@ -5605,7 +5605,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B69">
         <v>6.6</v>
@@ -5637,7 +5637,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B70">
         <v>6.7</v>
@@ -5669,7 +5669,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B71">
         <v>6.8</v>
@@ -5701,7 +5701,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B72">
         <v>6.9</v>
@@ -5733,7 +5733,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B73">
         <v>7</v>
@@ -5765,7 +5765,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B74">
         <v>7.1</v>
@@ -5797,7 +5797,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B75">
         <v>7.2</v>
@@ -5829,7 +5829,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B76">
         <v>7.3</v>
@@ -5861,7 +5861,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B77">
         <v>7.4</v>
@@ -5893,7 +5893,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B78">
         <v>7.5</v>
@@ -5925,7 +5925,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B79">
         <v>7.6</v>
@@ -5957,7 +5957,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B80">
         <v>7.7</v>
@@ -5989,7 +5989,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B81">
         <v>7.8</v>
@@ -6021,7 +6021,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B82">
         <v>7.9</v>
@@ -6053,7 +6053,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B83">
         <v>8</v>
@@ -6085,7 +6085,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B84">
         <v>8.1</v>
@@ -6117,7 +6117,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B85">
         <v>8.1999999999999993</v>
@@ -6149,7 +6149,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B86">
         <v>8.3000000000000007</v>
@@ -6181,7 +6181,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B87">
         <v>8.4</v>
@@ -6213,7 +6213,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B88">
         <v>8.5</v>
@@ -6245,7 +6245,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B89">
         <v>8.6</v>
@@ -6277,7 +6277,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B90">
         <v>8.6999999999999993</v>
@@ -6309,7 +6309,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B91">
         <v>8.8000000000000007</v>
@@ -6341,7 +6341,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B92">
         <v>8.9</v>
@@ -6373,7 +6373,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B93">
         <v>9</v>
@@ -6405,7 +6405,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B94">
         <v>9.1</v>
@@ -6437,7 +6437,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B95">
         <v>9.1999999999999993</v>
@@ -6469,7 +6469,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B96">
         <v>9.3000000000000007</v>
@@ -6501,7 +6501,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B97">
         <v>9.4</v>
@@ -6533,7 +6533,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B98">
         <v>9.5</v>
@@ -6565,7 +6565,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B99">
         <v>9.6</v>
@@ -6597,7 +6597,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B100">
         <v>9.6999999999999993</v>
@@ -6629,7 +6629,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B101">
         <v>9.8000000000000007</v>
@@ -6661,7 +6661,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B102">
         <v>9.9</v>
@@ -6693,7 +6693,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B103">
         <v>10</v>
@@ -6741,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6749,15 +6749,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6768,7 +6768,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -6779,7 +6779,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -6990,8 +6990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7027,30 +7027,30 @@
         <v>40</v>
       </c>
       <c r="F2" t="s">
+        <v>587</v>
+      </c>
+      <c r="G2" t="s">
         <v>41</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>42</v>
-      </c>
-      <c r="H2" t="s">
-        <v>43</v>
       </c>
       <c r="I2" t="s">
         <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -7068,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -7076,13 +7076,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -7100,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
@@ -7108,13 +7108,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -7132,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -7140,13 +7140,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
         <v>53</v>
       </c>
-      <c r="B6" t="s">
-        <v>54</v>
-      </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7164,7 +7164,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -7172,13 +7172,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
         <v>55</v>
       </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7196,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -7204,13 +7204,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
         <v>57</v>
       </c>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -7236,13 +7236,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
         <v>59</v>
       </c>
-      <c r="B9" t="s">
-        <v>60</v>
-      </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -7260,7 +7260,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -7304,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -7318,57 +7318,57 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
         <v>62</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>63</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>64</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>65</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>66</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>67</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>68</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>69</v>
-      </c>
-      <c r="L2" t="s">
-        <v>70</v>
       </c>
       <c r="M2" t="s">
         <v>6</v>
       </c>
       <c r="N2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" t="s">
         <v>71</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>72</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>73</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
         <v>75</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>76</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D15" si="0">LOG(E3)</f>
@@ -7385,18 +7385,18 @@
         <v>11</v>
       </c>
       <c r="N3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
         <v>79</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>80</v>
-      </c>
-      <c r="C4" t="s">
-        <v>81</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
@@ -7413,18 +7413,18 @@
         <v>11</v>
       </c>
       <c r="N4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
         <v>83</v>
       </c>
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
@@ -7441,18 +7441,18 @@
         <v>11</v>
       </c>
       <c r="N5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
         <v>86</v>
       </c>
-      <c r="B6" t="s">
-        <v>87</v>
-      </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
@@ -7469,18 +7469,18 @@
         <v>11</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
         <v>89</v>
       </c>
-      <c r="B7" t="s">
-        <v>90</v>
-      </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
@@ -7497,18 +7497,18 @@
         <v>11</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
         <v>92</v>
       </c>
-      <c r="B8" t="s">
-        <v>93</v>
-      </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -7525,18 +7525,18 @@
         <v>11</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
         <v>95</v>
       </c>
-      <c r="B9" t="s">
-        <v>96</v>
-      </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -7553,18 +7553,18 @@
         <v>11</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
         <v>98</v>
       </c>
-      <c r="B10" t="s">
-        <v>99</v>
-      </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -7582,18 +7582,18 @@
         <v>11</v>
       </c>
       <c r="N10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
         <v>101</v>
       </c>
-      <c r="B11" t="s">
-        <v>102</v>
-      </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
@@ -7610,18 +7610,18 @@
         <v>11</v>
       </c>
       <c r="N11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
         <v>104</v>
       </c>
-      <c r="B12" t="s">
-        <v>105</v>
-      </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
@@ -7638,18 +7638,18 @@
         <v>11</v>
       </c>
       <c r="N12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" t="s">
         <v>107</v>
       </c>
-      <c r="B13" t="s">
-        <v>108</v>
-      </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
@@ -7666,18 +7666,18 @@
         <v>11</v>
       </c>
       <c r="N13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" t="s">
         <v>110</v>
       </c>
-      <c r="B14" t="s">
-        <v>111</v>
-      </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
@@ -7694,18 +7694,18 @@
         <v>11</v>
       </c>
       <c r="N14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
         <v>113</v>
       </c>
-      <c r="B15" t="s">
-        <v>114</v>
-      </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
@@ -7722,7 +7722,7 @@
         <v>11</v>
       </c>
       <c r="N15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -7746,7 +7746,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -7757,52 +7757,52 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
         <v>117</v>
-      </c>
-      <c r="E2" t="s">
-        <v>118</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
         <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
         <v>120</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>121</v>
-      </c>
-      <c r="C3" t="s">
-        <v>122</v>
       </c>
       <c r="D3" t="str">
         <f>_xlfn.CONCAT("SD_",A3)</f>
         <v>SD_Y0</v>
       </c>
       <c r="E3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
         <v>123</v>
-      </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" t="s">
-        <v>124</v>
       </c>
       <c r="H3" t="str">
         <f ca="1">IFERROR(__xludf.dummyfunction("""\ce{["" &amp; REGEXREPLACE(B3,""_"",""_{\\text{"") &amp; ""}}]}"""),"\ce{[Total_{\text{C}}]}")</f>
@@ -7812,31 +7812,31 @@
         <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" t="s">
         <v>126</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>127</v>
-      </c>
-      <c r="C4" t="s">
-        <v>128</v>
       </c>
       <c r="D4" t="str">
         <f>_xlfn.CONCAT("SD_",A4)</f>
         <v>SD_Y1</v>
       </c>
       <c r="E4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
         <v>123</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" t="s">
-        <v>124</v>
       </c>
       <c r="H4" t="str">
         <f ca="1">IFERROR(__xludf.dummyfunction("""\ce{["" &amp; REGEXREPLACE(B3,""_"",""_{\\text{"") &amp; ""}}]}"""),"\ce{[Total_{\text{C}}]}")</f>
@@ -7846,31 +7846,31 @@
         <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s">
         <v>130</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>131</v>
-      </c>
-      <c r="C5" t="s">
-        <v>132</v>
       </c>
       <c r="D5" t="str">
         <f>_xlfn.CONCAT("SD_",A5)</f>
         <v>SD_Y2</v>
       </c>
       <c r="E5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
         <v>123</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" t="s">
-        <v>124</v>
       </c>
       <c r="H5" t="str">
         <f ca="1">IFERROR(__xludf.dummyfunction("""\ce{["" &amp; REGEXREPLACE(B3,""_"",""_{\\text{"") &amp; ""}}]}"""),"\ce{[Total_{\text{C}}]}")</f>
@@ -7880,31 +7880,31 @@
         <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" t="s">
         <v>133</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>134</v>
-      </c>
-      <c r="C6" t="s">
-        <v>135</v>
       </c>
       <c r="D6" t="str">
         <f>_xlfn.CONCAT("SD_",A6)</f>
         <v>SD_Y3</v>
       </c>
       <c r="E6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
         <v>123</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" t="s">
-        <v>124</v>
       </c>
       <c r="H6" t="str">
         <f ca="1">IFERROR(__xludf.dummyfunction("""\ce{["" &amp; REGEXREPLACE(B3,""_"",""_{\\text{"") &amp; ""}}]}"""),"\ce{[Total_{\text{C}}]}")</f>
@@ -7914,7 +7914,7 @@
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -7926,7 +7926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
@@ -7940,7 +7940,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -7951,54 +7951,54 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
         <v>137</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>142</v>
       </c>
-      <c r="J2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>143</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>144</v>
-      </c>
-      <c r="M2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
         <v>146</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>147</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>148</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>149</v>
-      </c>
-      <c r="F3" t="s">
-        <v>150</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -8022,19 +8022,19 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" t="s">
         <v>151</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" t="s">
         <v>152</v>
       </c>
-      <c r="D4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>153</v>
-      </c>
-      <c r="F4" t="s">
-        <v>154</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -8058,19 +8058,19 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" t="s">
         <v>155</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" t="s">
         <v>156</v>
-      </c>
-      <c r="D5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F5" t="s">
-        <v>157</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -8112,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -8120,24 +8120,24 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>159</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>160</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>161</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>162</v>
-      </c>
-      <c r="F2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -8157,7 +8157,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4">
         <v>0.1</v>
@@ -8177,7 +8177,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B5">
         <v>0.2</v>
@@ -8197,7 +8197,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6">
         <v>0.3</v>
@@ -8217,7 +8217,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B7">
         <v>0.4</v>
@@ -8237,7 +8237,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B8">
         <v>0.5</v>
@@ -8257,7 +8257,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B9">
         <v>0.6</v>
@@ -8277,7 +8277,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B10">
         <v>0.7</v>
@@ -8297,7 +8297,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B11">
         <v>0.8</v>
@@ -8317,7 +8317,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B12">
         <v>0.9</v>
@@ -8337,7 +8337,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -8357,7 +8357,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B14">
         <v>1.1000000000000001</v>
@@ -8377,7 +8377,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B15">
         <v>1.2</v>
@@ -8397,7 +8397,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16">
         <v>1.3</v>
@@ -8417,7 +8417,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B17">
         <v>1.4</v>
@@ -8437,7 +8437,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B18">
         <v>1.5</v>
@@ -8457,7 +8457,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B19">
         <v>1.6</v>
@@ -8477,7 +8477,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B20">
         <v>1.7</v>
@@ -8497,7 +8497,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B21">
         <v>1.8</v>
@@ -8517,7 +8517,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B22">
         <v>1.9</v>
@@ -8537,7 +8537,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -8557,7 +8557,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B24">
         <v>2.1</v>
@@ -8577,7 +8577,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B25">
         <v>2.2000000000000002</v>
@@ -8597,7 +8597,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B26">
         <v>2.2999999999999998</v>
@@ -8617,7 +8617,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B27">
         <v>2.4</v>
@@ -8637,7 +8637,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B28">
         <v>2.5</v>
@@ -8657,7 +8657,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B29">
         <v>2.6</v>
@@ -8677,7 +8677,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B30">
         <v>2.7</v>
@@ -8697,7 +8697,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B31">
         <v>2.8</v>
@@ -8717,7 +8717,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B32">
         <v>2.9</v>
@@ -8737,7 +8737,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -8757,7 +8757,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B34">
         <v>3.1</v>
@@ -8777,7 +8777,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B35">
         <v>3.2</v>
@@ -8797,7 +8797,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B36">
         <v>3.3</v>
@@ -8817,7 +8817,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B37">
         <v>3.4</v>
@@ -8837,7 +8837,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B38">
         <v>3.5</v>
@@ -8857,7 +8857,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B39">
         <v>3.6</v>
@@ -8877,7 +8877,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B40">
         <v>3.7</v>
@@ -8897,7 +8897,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B41">
         <v>3.8</v>
@@ -8917,7 +8917,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B42">
         <v>3.9</v>
@@ -8937,7 +8937,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -8957,7 +8957,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B44">
         <v>4.0999999999999996</v>
@@ -8977,7 +8977,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B45">
         <v>4.2</v>
@@ -8997,7 +8997,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B46">
         <v>4.3</v>
@@ -9017,7 +9017,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B47">
         <v>4.4000000000000004</v>
@@ -9037,7 +9037,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B48">
         <v>4.5</v>
@@ -9057,7 +9057,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B49">
         <v>4.5999999999999996</v>
@@ -9077,7 +9077,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B50">
         <v>4.7</v>
@@ -9097,7 +9097,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B51">
         <v>4.8</v>
@@ -9117,7 +9117,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B52">
         <v>4.9000000000000004</v>
@@ -9137,7 +9137,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B53">
         <v>5</v>
@@ -9157,7 +9157,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B54">
         <v>5.0999999999999996</v>
@@ -9177,7 +9177,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B55">
         <v>5.2</v>
@@ -9197,7 +9197,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B56">
         <v>5.3</v>
@@ -9217,7 +9217,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B57">
         <v>5.4</v>
@@ -9237,7 +9237,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B58">
         <v>5.5</v>
@@ -9257,7 +9257,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B59">
         <v>5.6</v>
@@ -9277,7 +9277,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B60">
         <v>5.7</v>
@@ -9297,7 +9297,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B61">
         <v>5.8</v>
@@ -9317,7 +9317,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B62">
         <v>5.9</v>
@@ -9337,7 +9337,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B63">
         <v>6</v>
@@ -9357,7 +9357,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B64">
         <v>6.1</v>
@@ -9377,7 +9377,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B65">
         <v>6.2</v>
@@ -9397,7 +9397,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B66">
         <v>6.3</v>
@@ -9417,7 +9417,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B67">
         <v>6.4</v>
@@ -9437,7 +9437,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B68">
         <v>6.5</v>
@@ -9457,7 +9457,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B69">
         <v>6.6</v>
@@ -9477,7 +9477,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B70">
         <v>6.7</v>
@@ -9497,7 +9497,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B71">
         <v>6.8</v>
@@ -9517,7 +9517,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B72">
         <v>6.9</v>
@@ -9537,7 +9537,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B73">
         <v>7</v>
@@ -9557,7 +9557,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B74">
         <v>7.1</v>
@@ -9577,7 +9577,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B75">
         <v>7.2</v>
@@ -9597,7 +9597,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B76">
         <v>7.3</v>
@@ -9617,7 +9617,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B77">
         <v>7.4</v>
@@ -9637,7 +9637,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B78">
         <v>7.5</v>
@@ -9657,7 +9657,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B79">
         <v>7.6</v>
@@ -9677,7 +9677,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B80">
         <v>7.7</v>
@@ -9697,7 +9697,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B81">
         <v>7.8</v>
@@ -9717,7 +9717,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B82">
         <v>7.9</v>
@@ -9737,7 +9737,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B83">
         <v>8</v>
@@ -9757,7 +9757,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B84">
         <v>8.1</v>
@@ -9777,7 +9777,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B85">
         <v>8.1999999999999993</v>
@@ -9797,7 +9797,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B86">
         <v>8.3000000000000007</v>
@@ -9817,7 +9817,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B87">
         <v>8.4</v>
@@ -9837,7 +9837,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B88">
         <v>8.5</v>
@@ -9857,7 +9857,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B89">
         <v>8.6</v>
@@ -9877,7 +9877,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B90">
         <v>8.6999999999999993</v>
@@ -9897,7 +9897,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B91">
         <v>8.8000000000000007</v>
@@ -9917,7 +9917,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B92">
         <v>8.9</v>
@@ -9937,7 +9937,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B93">
         <v>9</v>
@@ -9957,7 +9957,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B94">
         <v>9.1</v>
@@ -9977,7 +9977,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B95">
         <v>9.1999999999999993</v>
@@ -9997,7 +9997,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B96">
         <v>9.3000000000000007</v>
@@ -10017,7 +10017,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B97">
         <v>9.4</v>
@@ -10037,7 +10037,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B98">
         <v>9.5</v>
@@ -10057,7 +10057,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B99">
         <v>9.6</v>
@@ -10077,7 +10077,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B100">
         <v>9.6999999999999993</v>
@@ -10097,7 +10097,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B101">
         <v>9.8000000000000007</v>
@@ -10117,7 +10117,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B102">
         <v>9.9</v>
@@ -10137,7 +10137,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B103">
         <v>10</v>
@@ -10173,7 +10173,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -10181,15 +10181,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -10200,7 +10200,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -10211,7 +10211,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -10240,7 +10240,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -10248,36 +10248,36 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>159</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>160</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>161</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>162</v>
       </c>
-      <c r="F2" t="s">
-        <v>163</v>
-      </c>
       <c r="G2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H2" t="s">
         <v>271</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>272</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>273</v>
-      </c>
-      <c r="J2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -10309,7 +10309,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B4">
         <v>0.1</v>
@@ -10341,7 +10341,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B5">
         <v>0.2</v>
@@ -10373,7 +10373,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B6">
         <v>0.3</v>
@@ -10405,7 +10405,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B7">
         <v>0.4</v>
@@ -10437,7 +10437,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B8">
         <v>0.5</v>
@@ -10469,7 +10469,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B9">
         <v>0.6</v>
@@ -10501,7 +10501,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B10">
         <v>0.7</v>
@@ -10533,7 +10533,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B11">
         <v>0.8</v>
@@ -10565,7 +10565,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B12">
         <v>0.9</v>
@@ -10597,7 +10597,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -10629,7 +10629,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B14">
         <v>1.1000000000000001</v>
@@ -10661,7 +10661,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B15">
         <v>1.2</v>
@@ -10693,7 +10693,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B16">
         <v>1.3</v>
@@ -10725,7 +10725,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B17">
         <v>1.4</v>
@@ -10757,7 +10757,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B18">
         <v>1.5</v>
@@ -10789,7 +10789,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B19">
         <v>1.6</v>
@@ -10821,7 +10821,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B20">
         <v>1.7</v>
@@ -10853,7 +10853,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B21">
         <v>1.8</v>
@@ -10885,7 +10885,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B22">
         <v>1.9</v>
@@ -10917,7 +10917,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -10949,7 +10949,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B24">
         <v>2.1</v>
@@ -10981,7 +10981,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B25">
         <v>2.2000000000000002</v>
@@ -11013,7 +11013,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B26">
         <v>2.2999999999999998</v>
@@ -11045,7 +11045,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B27">
         <v>2.4</v>
@@ -11077,7 +11077,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B28">
         <v>2.5</v>
@@ -11109,7 +11109,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B29">
         <v>2.6</v>
@@ -11141,7 +11141,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B30">
         <v>2.7</v>
@@ -11173,7 +11173,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B31">
         <v>2.8</v>
@@ -11205,7 +11205,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B32">
         <v>2.9</v>
@@ -11237,7 +11237,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -11269,7 +11269,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B34">
         <v>3.1</v>
@@ -11301,7 +11301,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B35">
         <v>3.2</v>
@@ -11333,7 +11333,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B36">
         <v>3.3</v>
@@ -11365,7 +11365,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B37">
         <v>3.4</v>
@@ -11397,7 +11397,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B38">
         <v>3.5</v>
@@ -11429,7 +11429,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B39">
         <v>3.6</v>
@@ -11461,7 +11461,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B40">
         <v>3.7</v>
@@ -11493,7 +11493,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B41">
         <v>3.8</v>
@@ -11525,7 +11525,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B42">
         <v>3.9</v>
@@ -11557,7 +11557,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -11589,7 +11589,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B44">
         <v>4.0999999999999996</v>
@@ -11621,7 +11621,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B45">
         <v>4.2</v>
@@ -11653,7 +11653,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B46">
         <v>4.3</v>
@@ -11685,7 +11685,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B47">
         <v>4.4000000000000004</v>
@@ -11717,7 +11717,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B48">
         <v>4.5</v>
@@ -11749,7 +11749,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B49">
         <v>4.5999999999999996</v>
@@ -11781,7 +11781,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B50">
         <v>4.7</v>
@@ -11813,7 +11813,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B51">
         <v>4.8</v>
@@ -11845,7 +11845,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B52">
         <v>4.9000000000000004</v>
@@ -11877,7 +11877,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B53">
         <v>5</v>
@@ -11909,7 +11909,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B54">
         <v>5.0999999999999996</v>
@@ -11941,7 +11941,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B55">
         <v>5.2</v>
@@ -11973,7 +11973,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B56">
         <v>5.3</v>
@@ -12005,7 +12005,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B57">
         <v>5.4</v>
@@ -12037,7 +12037,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B58">
         <v>5.5</v>
@@ -12069,7 +12069,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B59">
         <v>5.6</v>
@@ -12101,7 +12101,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B60">
         <v>5.7</v>
@@ -12133,7 +12133,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B61">
         <v>5.8</v>
@@ -12165,7 +12165,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B62">
         <v>5.9</v>
@@ -12197,7 +12197,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B63">
         <v>6</v>
@@ -12229,7 +12229,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B64">
         <v>6.1</v>
@@ -12261,7 +12261,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B65">
         <v>6.2</v>
@@ -12293,7 +12293,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B66">
         <v>6.3</v>
@@ -12325,7 +12325,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B67">
         <v>6.4</v>
@@ -12357,7 +12357,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B68">
         <v>6.5</v>
@@ -12389,7 +12389,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B69">
         <v>6.6</v>
@@ -12421,7 +12421,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B70">
         <v>6.7</v>
@@ -12453,7 +12453,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B71">
         <v>6.8</v>
@@ -12485,7 +12485,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B72">
         <v>6.9</v>
@@ -12517,7 +12517,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B73">
         <v>7</v>
@@ -12549,7 +12549,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B74">
         <v>7.1</v>
@@ -12581,7 +12581,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B75">
         <v>7.2</v>
@@ -12613,7 +12613,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B76">
         <v>7.3</v>
@@ -12645,7 +12645,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B77">
         <v>7.4</v>
@@ -12677,7 +12677,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B78">
         <v>7.5</v>
@@ -12709,7 +12709,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B79">
         <v>7.6</v>
@@ -12741,7 +12741,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B80">
         <v>7.7</v>
@@ -12773,7 +12773,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B81">
         <v>7.8</v>
@@ -12805,7 +12805,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B82">
         <v>7.9</v>
@@ -12837,7 +12837,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B83">
         <v>8</v>
@@ -12869,7 +12869,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B84">
         <v>8.1</v>
@@ -12901,7 +12901,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B85">
         <v>8.1999999999999993</v>
@@ -12933,7 +12933,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B86">
         <v>8.3000000000000007</v>
@@ -12965,7 +12965,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B87">
         <v>8.4</v>
@@ -12997,7 +12997,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B88">
         <v>8.5</v>
@@ -13029,7 +13029,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B89">
         <v>8.6</v>
@@ -13061,7 +13061,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B90">
         <v>8.6999999999999993</v>
@@ -13093,7 +13093,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B91">
         <v>8.8000000000000007</v>
@@ -13125,7 +13125,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B92">
         <v>8.9</v>
@@ -13157,7 +13157,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B93">
         <v>9</v>
@@ -13189,7 +13189,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B94">
         <v>9.1</v>
@@ -13221,7 +13221,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B95">
         <v>9.1999999999999993</v>
@@ -13253,7 +13253,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B96">
         <v>9.3000000000000007</v>
@@ -13285,7 +13285,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B97">
         <v>9.4</v>
@@ -13317,7 +13317,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B98">
         <v>9.5</v>
@@ -13349,7 +13349,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B99">
         <v>9.6</v>
@@ -13381,7 +13381,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B100">
         <v>9.6999999999999993</v>
@@ -13413,7 +13413,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B101">
         <v>9.8000000000000007</v>
@@ -13445,7 +13445,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B102">
         <v>9.9</v>
@@ -13477,7 +13477,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B103">
         <v>10</v>

--- a/Matlab/Model/Model_Example/SBTAB example.xlsx
+++ b/Matlab/Model/Model_Example/SBTAB example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santos\Documents\GitHub\Subcellular_workflow\Matlab\Model\Model_Example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filipa\Documents\GitHub\Thesis_Code\Subcellular_workflow\Matlab\Model\Model_Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A934DD0-774F-423F-9CFB-01AFD001557C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4392DC02-90A0-4389-8E16-F891EBD0C2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6400" windowHeight="3410" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Defaults" sheetId="17" r:id="rId1"/>
@@ -3976,7 +3976,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-150"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1245914368"/>
@@ -4038,7 +4038,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-150"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1241837744"/>
@@ -4086,7 +4086,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-150"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4985,14 +4985,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>588</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>590</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>591</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>592</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>594</v>
       </c>
@@ -5075,13 +5075,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>468</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>469</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>470</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>471</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>472</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>473</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>474</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>475</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>476</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>477</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>478</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>479</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>480</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>481</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>482</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>483</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>484</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>485</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>486</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>487</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>488</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>489</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>490</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>491</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>492</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>493</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>494</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>495</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>496</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>497</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>498</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>499</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>500</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>501</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>502</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>503</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>504</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>505</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>506</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>507</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>508</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>509</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>510</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>511</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>512</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>513</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>514</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>515</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>516</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>517</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>518</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>519</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>520</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>521</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>522</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>523</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>524</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>525</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>526</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>527</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>528</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>529</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>530</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>531</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>532</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>533</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>534</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>535</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>536</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>537</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>538</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>539</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>540</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>541</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>542</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>543</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>544</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>545</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>546</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>547</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>548</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>549</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>550</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>551</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>552</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>553</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>554</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>555</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>556</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>557</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>558</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>559</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>560</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>561</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>562</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>563</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>564</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>565</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>566</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>567</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>568</v>
       </c>
@@ -8367,9 +8367,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>569</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>570</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>571</v>
       </c>
@@ -8434,9 +8434,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>266</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>267</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>268</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>269</v>
       </c>
@@ -8604,7 +8604,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>270</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>271</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>272</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>273</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>274</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>275</v>
       </c>
@@ -8796,7 +8796,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>276</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>277</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>278</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>279</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>280</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>281</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>282</v>
       </c>
@@ -9020,7 +9020,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>283</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>284</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>285</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>286</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>287</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>288</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>289</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>290</v>
       </c>
@@ -9276,7 +9276,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>291</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>292</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>293</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>294</v>
       </c>
@@ -9404,7 +9404,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>295</v>
       </c>
@@ -9436,7 +9436,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>296</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>297</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>298</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>299</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>300</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>301</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>302</v>
       </c>
@@ -9660,7 +9660,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>303</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>304</v>
       </c>
@@ -9724,7 +9724,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>305</v>
       </c>
@@ -9756,7 +9756,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>306</v>
       </c>
@@ -9788,7 +9788,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>307</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>308</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>309</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>310</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>311</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>312</v>
       </c>
@@ -9980,7 +9980,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>313</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>314</v>
       </c>
@@ -10044,7 +10044,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>315</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>316</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>317</v>
       </c>
@@ -10140,7 +10140,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>318</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>319</v>
       </c>
@@ -10204,7 +10204,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>320</v>
       </c>
@@ -10236,7 +10236,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>321</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>322</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>323</v>
       </c>
@@ -10332,7 +10332,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>324</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>325</v>
       </c>
@@ -10396,7 +10396,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>326</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>327</v>
       </c>
@@ -10460,7 +10460,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>328</v>
       </c>
@@ -10492,7 +10492,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>329</v>
       </c>
@@ -10524,7 +10524,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>330</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>331</v>
       </c>
@@ -10588,7 +10588,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>332</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>333</v>
       </c>
@@ -10652,7 +10652,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>334</v>
       </c>
@@ -10684,7 +10684,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>335</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>336</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>337</v>
       </c>
@@ -10780,7 +10780,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>338</v>
       </c>
@@ -10812,7 +10812,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>339</v>
       </c>
@@ -10844,7 +10844,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>340</v>
       </c>
@@ -10876,7 +10876,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>341</v>
       </c>
@@ -10908,7 +10908,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>342</v>
       </c>
@@ -10940,7 +10940,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>343</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>344</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>345</v>
       </c>
@@ -11036,7 +11036,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>346</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>347</v>
       </c>
@@ -11100,7 +11100,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>348</v>
       </c>
@@ -11132,7 +11132,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>349</v>
       </c>
@@ -11164,7 +11164,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>350</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>351</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>352</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>353</v>
       </c>
@@ -11292,7 +11292,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>354</v>
       </c>
@@ -11324,7 +11324,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>355</v>
       </c>
@@ -11356,7 +11356,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>356</v>
       </c>
@@ -11388,7 +11388,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>357</v>
       </c>
@@ -11420,7 +11420,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>358</v>
       </c>
@@ -11452,7 +11452,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>359</v>
       </c>
@@ -11484,7 +11484,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>360</v>
       </c>
@@ -11516,7 +11516,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>361</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>362</v>
       </c>
@@ -11580,7 +11580,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>363</v>
       </c>
@@ -11612,7 +11612,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>364</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>365</v>
       </c>
@@ -11676,7 +11676,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>366</v>
       </c>
@@ -11721,9 +11721,9 @@
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11742,7 +11742,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>367</v>
       </c>
@@ -11754,7 +11754,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>368</v>
       </c>
@@ -11766,7 +11766,7 @@
         <v>0.54991670832341411</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>369</v>
       </c>
@@ -11778,7 +11778,7 @@
         <v>0.59933466539753066</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>370</v>
       </c>
@@ -11790,7 +11790,7 @@
         <v>0.6477601033306698</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>371</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>0.69470917115432529</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>372</v>
       </c>
@@ -11814,7 +11814,7 @@
         <v>0.7397127693021015</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>373</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>0.78232123669751763</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>374</v>
       </c>
@@ -11838,7 +11838,7 @@
         <v>0.82210884361884551</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>375</v>
       </c>
@@ -11850,7 +11850,7 @@
         <v>0.85867804544976134</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>376</v>
       </c>
@@ -11862,7 +11862,7 @@
         <v>0.89166345481374165</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>377</v>
       </c>
@@ -11874,7 +11874,7 @@
         <v>0.92073549240394825</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>378</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>0.94560368003071771</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>379</v>
       </c>
@@ -11898,7 +11898,7 @@
         <v>0.96601954298361314</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>380</v>
       </c>
@@ -11910,7 +11910,7 @@
         <v>0.98177909270859653</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>381</v>
       </c>
@@ -11922,7 +11922,7 @@
         <v>0.99272486499423007</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>382</v>
       </c>
@@ -11934,7 +11934,7 @@
         <v>0.99874749330202728</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>383</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>0.9997868015207525</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>384</v>
       </c>
@@ -11958,7 +11958,7 @@
         <v>0.99583240522623429</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>385</v>
       </c>
@@ -11970,7 +11970,7 @@
         <v>0.98692381543909757</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>386</v>
       </c>
@@ -11982,7 +11982,7 @@
         <v>0.97315004384370729</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>387</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>0.95464871341284085</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>388</v>
       </c>
@@ -12006,7 +12006,7 @@
         <v>0.93160468332443691</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>389</v>
       </c>
@@ -12018,7 +12018,7 @@
         <v>0.90424820190979505</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>390</v>
       </c>
@@ -12030,7 +12030,7 @@
         <v>0.87285260608836013</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>391</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>0.83773159027557553</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>392</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>0.79923607205197822</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>393</v>
       </c>
@@ -12066,7 +12066,7 @@
         <v>0.75775068591073214</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>394</v>
       </c>
@@ -12078,7 +12078,7 @@
         <v>0.71368994011691489</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>395</v>
       </c>
@@ -12090,7 +12090,7 @@
         <v>0.66749407507795255</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>396</v>
       </c>
@@ -12102,7 +12102,7 @@
         <v>0.61962466460699117</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>397</v>
       </c>
@@ -12114,7 +12114,7 @@
         <v>0.57056000402993357</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>398</v>
       </c>
@@ -12126,7 +12126,7 @@
         <v>0.5207903312166452</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>399</v>
       </c>
@@ -12138,7 +12138,7 @@
         <v>0.47081292828620996</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>400</v>
       </c>
@@ -12150,7 +12150,7 @@
         <v>0.42112715292837588</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>401</v>
       </c>
@@ -12162,7 +12162,7 @@
         <v>0.37222944898658439</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>402</v>
       </c>
@@ -12174,7 +12174,7 @@
         <v>0.32460838615519005</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>403</v>
       </c>
@@ -12186,7 +12186,7 @@
         <v>0.2787397783525738</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>404</v>
       </c>
@@ -12198,7 +12198,7 @@
         <v>0.2350819295457533</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>405</v>
       </c>
@@ -12210,7 +12210,7 @@
         <v>0.19407105452864054</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>406</v>
       </c>
@@ -12222,7 +12222,7 @@
         <v>0.15611692040801312</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>407</v>
       </c>
@@ -12234,7 +12234,7 @@
         <v>0.1215987523460359</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>408</v>
       </c>
@@ -12246,7 +12246,7 @@
         <v>9.0861444467794872E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>409</v>
       </c>
@@ -12258,7 +12258,7 @@
         <v>6.4212113793205905E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>410</v>
       </c>
@@ -12270,7 +12270,7 @@
         <v>4.1917031625272549E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>411</v>
       </c>
@@ -12282,7 +12282,7 @@
         <v>2.4198963055241995E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>412</v>
       </c>
@@ -12294,7 +12294,7 @@
         <v>1.1234941167451495E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>413</v>
       </c>
@@ -12306,7 +12306,7 @@
         <v>3.1544981832677954E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>414</v>
       </c>
@@ -12318,7 +12318,7 @@
         <v>3.8371217949584313E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>415</v>
       </c>
@@ -12330,7 +12330,7 @@
         <v>1.9176955820796593E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>416</v>
       </c>
@@ -12342,7 +12342,7 @@
         <v>8.7736936878337612E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>417</v>
       </c>
@@ -12354,7 +12354,7 @@
         <v>2.0537862668430773E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>418</v>
       </c>
@@ -12366,7 +12366,7 @@
         <v>3.7092658836133774E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>419</v>
       </c>
@@ -12378,7 +12378,7 @@
         <v>5.8272672139923432E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>420</v>
       </c>
@@ -12390,7 +12390,7 @@
         <v>8.3866278888049373E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>421</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>0.11361775622200643</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>422</v>
       </c>
@@ -12414,7 +12414,7 @@
         <v>0.14722983721480404</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>423</v>
       </c>
@@ -12426,7 +12426,7 @@
         <v>0.18436668106383919</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>424</v>
       </c>
@@ -12438,7 +12438,7 @@
         <v>0.22465722870118121</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>425</v>
       </c>
@@ -12450,7 +12450,7 @@
         <v>0.26769891029312132</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>426</v>
       </c>
@@ -12462,7 +12462,7 @@
         <v>0.31306166758488196</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>427</v>
       </c>
@@ -12474,7 +12474,7 @@
         <v>0.36029225090053707</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>428</v>
       </c>
@@ -12486,7 +12486,7 @@
         <v>0.40891874786395205</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>429</v>
       </c>
@@ -12498,7 +12498,7 @@
         <v>0.45845529859125178</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>430</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>0.50840695024217486</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>431</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>0.55827460242524685</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>432</v>
       </c>
@@ -12534,7 +12534,7 @@
         <v>0.60755999404390781</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>433</v>
       </c>
@@ -12546,7 +12546,7 @@
         <v>0.65577068175668896</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>434</v>
       </c>
@@ -12558,7 +12558,7 @@
         <v>0.70242496030829915</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>435</v>
       </c>
@@ -12570,7 +12570,7 @@
         <v>0.74705667556930411</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>436</v>
       </c>
@@ -12582,7 +12582,7 @@
         <v>0.78921988219410011</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>437</v>
       </c>
@@ -12594,7 +12594,7 @@
         <v>0.82849329935939453</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>438</v>
       </c>
@@ -12606,7 +12606,7 @@
         <v>0.86448452006293797</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>439</v>
       </c>
@@ -12618,7 +12618,7 @@
         <v>0.89683393192457661</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>440</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>0.92521831031428214</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>441</v>
       </c>
@@ -12642,7 +12642,7 @@
         <v>0.94935404790581346</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>442</v>
       </c>
@@ -12654,7 +12654,7 @@
         <v>0.96899998838736945</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>443</v>
       </c>
@@ -12666,7 +12666,7 @@
         <v>0.98395983601574311</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>444</v>
       </c>
@@ -12678,7 +12678,7 @@
         <v>0.99408411693850018</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>445</v>
       </c>
@@ -12690,7 +12690,7 @@
         <v>0.99927167268730255</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>446</v>
       </c>
@@ -12702,7 +12702,7 @@
         <v>0.99947067091988595</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>447</v>
       </c>
@@ -12714,7 +12714,7 @@
         <v>0.99467912331169095</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>448</v>
       </c>
@@ -12726,7 +12726,7 @@
         <v>0.9849449054225432</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>449</v>
       </c>
@@ -12738,7 +12738,7 @@
         <v>0.97036527833988662</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>450</v>
       </c>
@@ -12750,7 +12750,7 @@
         <v>0.9510859168781467</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>451</v>
       </c>
@@ -12762,7 +12762,7 @@
         <v>0.92729945404414016</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>452</v>
       </c>
@@ -12774,7 +12774,7 @@
         <v>0.89924355631174513</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>453</v>
       </c>
@@ -12786,7 +12786,7 @@
         <v>0.86719854893705661</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>454</v>
       </c>
@@ -12798,7 +12798,7 @@
         <v>0.83148461504109172</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>455</v>
       </c>
@@ -12810,7 +12810,7 @@
         <v>0.79245859644588079</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>456</v>
       </c>
@@ -12822,7 +12822,7 @@
         <v>0.75051042822894232</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>457</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>0.70605924262087827</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>458</v>
       </c>
@@ -12846,7 +12846,7 @@
         <v>0.65954918117467609</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>459</v>
       </c>
@@ -12858,7 +12858,7 @@
         <v>0.61144495705012381</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>460</v>
       </c>
@@ -12870,7 +12870,7 @@
         <v>0.56222721175353085</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>461</v>
       </c>
@@ -12882,7 +12882,7 @@
         <v>0.51238771272667893</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>462</v>
       </c>
@@ -12894,7 +12894,7 @@
         <v>0.46242443976909536</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>463</v>
       </c>
@@ -12906,7 +12906,7 @@
         <v>0.41283660938851019</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>464</v>
       </c>
@@ -12918,7 +12918,7 @@
         <v>0.36411968679452877</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>465</v>
       </c>
@@ -12930,7 +12930,7 @@
         <v>0.31676043537403581</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>466</v>
       </c>
@@ -12942,7 +12942,7 @@
         <v>0.27123205311233933</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>467</v>
       </c>
@@ -12967,9 +12967,9 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -12991,7 +12991,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>573</v>
       </c>
@@ -13018,14 +13018,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="98.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13033,7 +13033,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13053,7 +13053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -13074,7 +13074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -13095,7 +13095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -13116,7 +13116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -13137,7 +13137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -13158,7 +13158,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -13179,7 +13179,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -13209,19 +13209,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="125.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="125.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13229,7 +13229,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13261,7 +13261,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -13293,7 +13293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -13304,7 +13304,7 @@
         <v>44</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
         <f>FALSE()</f>
@@ -13325,7 +13325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -13357,7 +13357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -13389,7 +13389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -13421,7 +13421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -13453,7 +13453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -13498,27 +13498,27 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.54296875" customWidth="1"/>
-    <col min="3" max="3" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="56.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="56.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13526,7 +13526,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13579,7 +13579,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -13607,7 +13607,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -13635,7 +13635,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -13663,7 +13663,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -13719,7 +13719,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -13747,7 +13747,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -13775,7 +13775,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -13804,7 +13804,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -13832,7 +13832,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>100</v>
       </c>
@@ -13860,7 +13860,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -13888,7 +13888,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -13916,7 +13916,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>109</v>
       </c>
@@ -13954,15 +13954,15 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="J3" sqref="J3:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13970,7 +13970,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -14002,7 +14002,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -14036,7 +14036,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>121</v>
       </c>
@@ -14070,7 +14070,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>125</v>
       </c>
@@ -14104,7 +14104,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>128</v>
       </c>
@@ -14151,13 +14151,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14165,7 +14165,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -14206,7 +14206,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>140</v>
       </c>
@@ -14242,7 +14242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -14278,7 +14278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>149</v>
       </c>
@@ -14327,9 +14327,9 @@
       <selection activeCell="C103" sqref="B2:C103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14337,7 +14337,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -14357,7 +14357,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>157</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>158</v>
       </c>
@@ -14397,7 +14397,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>159</v>
       </c>
@@ -14417,7 +14417,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>160</v>
       </c>
@@ -14437,7 +14437,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>161</v>
       </c>
@@ -14457,7 +14457,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>162</v>
       </c>
@@ -14477,7 +14477,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>163</v>
       </c>
@@ -14497,7 +14497,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>164</v>
       </c>
@@ -14517,7 +14517,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>165</v>
       </c>
@@ -14537,7 +14537,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>166</v>
       </c>
@@ -14557,7 +14557,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>167</v>
       </c>
@@ -14577,7 +14577,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>168</v>
       </c>
@@ -14597,7 +14597,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>169</v>
       </c>
@@ -14617,7 +14617,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>170</v>
       </c>
@@ -14637,7 +14637,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>171</v>
       </c>
@@ -14657,7 +14657,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>172</v>
       </c>
@@ -14677,7 +14677,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>173</v>
       </c>
@@ -14697,7 +14697,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>174</v>
       </c>
@@ -14717,7 +14717,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>175</v>
       </c>
@@ -14737,7 +14737,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>176</v>
       </c>
@@ -14757,7 +14757,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>177</v>
       </c>
@@ -14777,7 +14777,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>178</v>
       </c>
@@ -14797,7 +14797,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>179</v>
       </c>
@@ -14817,7 +14817,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>180</v>
       </c>
@@ -14837,7 +14837,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>181</v>
       </c>
@@ -14857,7 +14857,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>182</v>
       </c>
@@ -14877,7 +14877,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>183</v>
       </c>
@@ -14897,7 +14897,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>184</v>
       </c>
@@ -14917,7 +14917,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>185</v>
       </c>
@@ -14937,7 +14937,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>186</v>
       </c>
@@ -14957,7 +14957,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>187</v>
       </c>
@@ -14977,7 +14977,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>188</v>
       </c>
@@ -14997,7 +14997,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>189</v>
       </c>
@@ -15017,7 +15017,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>190</v>
       </c>
@@ -15037,7 +15037,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>191</v>
       </c>
@@ -15057,7 +15057,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>192</v>
       </c>
@@ -15077,7 +15077,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>193</v>
       </c>
@@ -15097,7 +15097,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>194</v>
       </c>
@@ -15117,7 +15117,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>195</v>
       </c>
@@ -15137,7 +15137,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>196</v>
       </c>
@@ -15157,7 +15157,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>197</v>
       </c>
@@ -15177,7 +15177,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>198</v>
       </c>
@@ -15197,7 +15197,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>199</v>
       </c>
@@ -15217,7 +15217,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>200</v>
       </c>
@@ -15237,7 +15237,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>201</v>
       </c>
@@ -15257,7 +15257,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>202</v>
       </c>
@@ -15277,7 +15277,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>203</v>
       </c>
@@ -15297,7 +15297,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>204</v>
       </c>
@@ -15317,7 +15317,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>205</v>
       </c>
@@ -15337,7 +15337,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>206</v>
       </c>
@@ -15357,7 +15357,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>207</v>
       </c>
@@ -15377,7 +15377,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>208</v>
       </c>
@@ -15397,7 +15397,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>209</v>
       </c>
@@ -15417,7 +15417,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>210</v>
       </c>
@@ -15437,7 +15437,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>211</v>
       </c>
@@ -15457,7 +15457,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>212</v>
       </c>
@@ -15477,7 +15477,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>213</v>
       </c>
@@ -15497,7 +15497,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>214</v>
       </c>
@@ -15517,7 +15517,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>215</v>
       </c>
@@ -15537,7 +15537,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>216</v>
       </c>
@@ -15557,7 +15557,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>217</v>
       </c>
@@ -15577,7 +15577,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>218</v>
       </c>
@@ -15597,7 +15597,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>219</v>
       </c>
@@ -15617,7 +15617,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>220</v>
       </c>
@@ -15637,7 +15637,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>221</v>
       </c>
@@ -15657,7 +15657,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>222</v>
       </c>
@@ -15677,7 +15677,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>223</v>
       </c>
@@ -15697,7 +15697,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>224</v>
       </c>
@@ -15717,7 +15717,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>225</v>
       </c>
@@ -15737,7 +15737,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>226</v>
       </c>
@@ -15757,7 +15757,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>227</v>
       </c>
@@ -15777,7 +15777,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>228</v>
       </c>
@@ -15797,7 +15797,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>229</v>
       </c>
@@ -15817,7 +15817,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>230</v>
       </c>
@@ -15837,7 +15837,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>231</v>
       </c>
@@ -15857,7 +15857,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>232</v>
       </c>
@@ -15877,7 +15877,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>233</v>
       </c>
@@ -15897,7 +15897,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>234</v>
       </c>
@@ -15917,7 +15917,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>235</v>
       </c>
@@ -15937,7 +15937,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>236</v>
       </c>
@@ -15957,7 +15957,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>237</v>
       </c>
@@ -15977,7 +15977,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>238</v>
       </c>
@@ -15997,7 +15997,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>239</v>
       </c>
@@ -16017,7 +16017,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>240</v>
       </c>
@@ -16037,7 +16037,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>241</v>
       </c>
@@ -16057,7 +16057,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>242</v>
       </c>
@@ -16077,7 +16077,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>243</v>
       </c>
@@ -16097,7 +16097,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>244</v>
       </c>
@@ -16117,7 +16117,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>245</v>
       </c>
@@ -16137,7 +16137,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>246</v>
       </c>
@@ -16157,7 +16157,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>247</v>
       </c>
@@ -16177,7 +16177,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>248</v>
       </c>
@@ -16197,7 +16197,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>249</v>
       </c>
@@ -16217,7 +16217,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>250</v>
       </c>
@@ -16237,7 +16237,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>251</v>
       </c>
@@ -16257,7 +16257,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>252</v>
       </c>
@@ -16277,7 +16277,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>253</v>
       </c>
@@ -16297,7 +16297,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>254</v>
       </c>
@@ -16317,7 +16317,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>255</v>
       </c>
@@ -16337,7 +16337,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>256</v>
       </c>
@@ -16357,7 +16357,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>257</v>
       </c>
@@ -16390,9 +16390,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16400,7 +16400,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -16411,7 +16411,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>259</v>
       </c>
@@ -16422,7 +16422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>260</v>
       </c>
@@ -16433,7 +16433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>261</v>
       </c>
